--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D88D82-302B-7B41-AD8E-DB2F2A44D519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CD945-ADA0-CF4F-B7A9-4DF5EBF9603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Initials</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t xml:space="preserve">Initial cleaning at start of experiment </t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No mortality observed, tanks running well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed algae from a couple frags, no mortality observed </t>
   </si>
 </sst>
 </file>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,6 +463,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20220929</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20220930</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -460,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CD945-ADA0-CF4F-B7A9-4DF5EBF9603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C712B37-3749-3343-82DB-A539D4171DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Initials</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">Removed algae from a couple frags, no mortality observed </t>
+  </si>
+  <si>
+    <t>Rearranged.Frags</t>
+  </si>
+  <si>
+    <t>Rearranged.Tanks</t>
+  </si>
+  <si>
+    <t>Downloaded.Loggers</t>
   </si>
 </sst>
 </file>
@@ -436,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,19 +513,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="5" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -530,13 +540,22 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20220928</v>
       </c>
@@ -550,9 +569,15 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C712B37-3749-3343-82DB-A539D4171DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776F883-875E-B44A-88B4-1A932EEDB88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Initials</t>
   </si>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,6 +574,9 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776F883-875E-B44A-88B4-1A932EEDB88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735FD50-4E21-AC4E-B57D-20321D0C54F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Initials</t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,6 +504,20 @@
       </c>
       <c r="E3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20221001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735FD50-4E21-AC4E-B57D-20321D0C54F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA725735-01F7-F84C-AD95-2BBDA534455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Initials</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Downloaded.Loggers</t>
+  </si>
+  <si>
+    <t>Also cleaned tanks</t>
+  </si>
+  <si>
+    <t>Rearranged tanks within table today</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,6 +526,37 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20221002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20221003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -527,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,6 +635,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20221003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA725735-01F7-F84C-AD95-2BBDA534455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F66E1-531B-324F-8A77-4A7AB3F83625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Initials</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Rearranged tanks within table today</t>
+  </si>
+  <si>
+    <t>Rusing on paper clips, will need to replace soon</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,6 +560,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20221004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -566,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F66E1-531B-324F-8A77-4A7AB3F83625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6DFF36-24E2-3448-8485-34CEE2B420DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Initials</t>
   </si>
@@ -100,7 +100,10 @@
     <t>Rearranged tanks within table today</t>
   </si>
   <si>
-    <t>Rusing on paper clips, will need to replace soon</t>
+    <t>Rusting on paper clips, will need to replace soon</t>
+  </si>
+  <si>
+    <t>No mortality observed</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,6 +578,37 @@
       </c>
       <c r="E7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20221005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20221006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6DFF36-24E2-3448-8485-34CEE2B420DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2AF97-A3EB-FB42-99E0-054C4D7DF4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Initials</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>No mortality observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started replacing clips </t>
+  </si>
+  <si>
+    <t>not completed</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +615,54 @@
       </c>
       <c r="D9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20221007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20221008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20221009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2AF97-A3EB-FB42-99E0-054C4D7DF4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66026C99-EE7A-9B4C-A9FB-25C4EA8F9D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>Initials</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>not completed</t>
+  </si>
+  <si>
+    <t>Cleaned all tanks; moved to new center tables</t>
+  </si>
+  <si>
+    <t>Moved tanks to inner tables to avoid light effects on edge of building</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,6 +671,37 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20221010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20221011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -672,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,6 +809,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20221011</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66026C99-EE7A-9B4C-A9FB-25C4EA8F9D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65766C5D-797B-5740-B365-C03EF068E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
   <si>
     <t>Initials</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,6 +702,34 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20221012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20221013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -711,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65766C5D-797B-5740-B365-C03EF068E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE28C3-1C81-C243-83B4-249C792EF217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>Initials</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,6 +727,20 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20221014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE28C3-1C81-C243-83B4-249C792EF217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1020B651-B24E-6C42-8533-9D7B4DD75D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
   <si>
     <t>Initials</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,6 +741,20 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20221015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1020B651-B24E-6C42-8533-9D7B4DD75D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B500F970-2C44-9240-B6B2-19220B373E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Initials</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,6 +755,20 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20221016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B500F970-2C44-9240-B6B2-19220B373E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195B32BC-626B-C149-A1FA-00515D2EADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
   <si>
     <t>Initials</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Moved tanks to inner tables to avoid light effects on edge of building</t>
+  </si>
+  <si>
+    <t>Time.Feeding</t>
+  </si>
+  <si>
+    <t>Started shade and feeding treatments</t>
+  </si>
+  <si>
+    <t>13:53-14:55</t>
   </si>
 </sst>
 </file>
@@ -467,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -490,13 +499,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20220929</v>
       </c>
@@ -507,13 +519,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20220930</v>
       </c>
@@ -524,13 +539,16 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20221001</v>
       </c>
@@ -541,10 +559,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20221002</v>
       </c>
@@ -555,10 +576,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20221003</v>
       </c>
@@ -569,13 +593,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20221004</v>
       </c>
@@ -586,13 +613,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20221005</v>
       </c>
@@ -603,13 +633,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20221006</v>
       </c>
@@ -620,10 +653,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20221007</v>
       </c>
@@ -634,13 +670,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20221008</v>
       </c>
@@ -651,10 +690,13 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20221009</v>
       </c>
@@ -665,13 +707,16 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20221010</v>
       </c>
@@ -682,10 +727,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20221011</v>
       </c>
@@ -696,13 +744,16 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20221012</v>
       </c>
@@ -713,10 +764,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20221013</v>
       </c>
@@ -727,10 +781,13 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20221014</v>
       </c>
@@ -741,10 +798,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20221015</v>
       </c>
@@ -755,10 +815,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20221016</v>
       </c>
@@ -769,7 +832,30 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20221017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195B32BC-626B-C149-A1FA-00515D2EADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25682D2-0FA2-4A4C-9071-763A8AD88F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
+    <workbookView xWindow="6360" yWindow="1780" windowWidth="21000" windowHeight="14320" activeTab="1" xr2:uid="{368D60C7-8B7D-924B-9BC3-F169020976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
   <si>
     <t>Initials</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>13:53-14:55</t>
+  </si>
+  <si>
+    <t>Cleaned all tanks</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC17A8C-3D5B-A541-B80F-453EF69C9230}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,6 +861,26 @@
         <v>28</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20221018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -865,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E4EA5-7B12-FB44-A21E-50A18B159260}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,6 +1017,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20221018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
